--- a/data/trans_dic/P16A13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.009369699794740838</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.008441991570072608</v>
+        <v>0.008441991570072607</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005757229441347983</v>
+        <v>0.006059707511271255</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.008245573056959157</v>
+        <v>0.009696030524511847</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002292977205284272</v>
+        <v>0.00227112150180713</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00254682992442095</v>
+        <v>0.002538527567296588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005898562817799139</v>
+        <v>0.005407492771573407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005332122887649412</v>
+        <v>0.005751173262209293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003498919052707974</v>
+        <v>0.003486190355501849</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002152022261513938</v>
+        <v>0.00217379696284422</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01967835347881537</v>
+        <v>0.01717964899243506</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0308191743331462</v>
+        <v>0.03353522138343617</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02648495246106723</v>
+        <v>0.02742888773490032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04446743992650351</v>
+        <v>0.03562965331683889</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0327594152518356</v>
+        <v>0.03467888193112205</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02254399747557257</v>
+        <v>0.02063999839022506</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03132835540229243</v>
+        <v>0.02866750476461327</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03167148160245586</v>
+        <v>0.02573268913674719</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02023158047752389</v>
+        <v>0.02012178757618075</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02197613023570246</v>
+        <v>0.02255273377903656</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02006023063894414</v>
+        <v>0.02015629786712956</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02489644340787747</v>
+        <v>0.02641875972644291</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01621503948421491</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01524993490704048</v>
+        <v>0.01524993490704047</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01412221226526351</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008873526462914892</v>
+        <v>0.008891984160986561</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01253340798330796</v>
+        <v>0.0123729443530531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007451227308672211</v>
+        <v>0.00833381863573263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005531977437581043</v>
+        <v>0.005211174152311025</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004708251316486416</v>
+        <v>0.005065343446848429</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01163000495009525</v>
+        <v>0.01097059879975653</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008169331535231425</v>
+        <v>0.007909309259718132</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006233139121405545</v>
+        <v>0.006398115370976454</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008718101787219282</v>
+        <v>0.008721932512999303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01412517307177555</v>
+        <v>0.01305401477176566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009575317079655261</v>
+        <v>0.0104146492365001</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008387573012792452</v>
+        <v>0.00858308877934626</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02796732018174487</v>
+        <v>0.02935849426331391</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03874752657707853</v>
+        <v>0.03743901956526673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03095484148826924</v>
+        <v>0.03165855557907258</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03442706583392947</v>
+        <v>0.03348898748923967</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02296578760022077</v>
+        <v>0.02270332642440552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03590608145823792</v>
+        <v>0.03713514505488484</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02919105669628715</v>
+        <v>0.03056563405174055</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03183243561104021</v>
+        <v>0.03072717451193577</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0210183137844129</v>
+        <v>0.02175989643880834</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03192941679262931</v>
+        <v>0.03076337531735956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02471429263581363</v>
+        <v>0.02725740763380649</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02667869440466164</v>
+        <v>0.02661939746332807</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01349976453285062</v>
+        <v>0.01379957390513582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01537956989734498</v>
+        <v>0.01529959727480824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009051611178816716</v>
+        <v>0.009690513204390242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00808901529456762</v>
+        <v>0.007375541564670779</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01004528589730358</v>
+        <v>0.01023825046299916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02043970733582708</v>
+        <v>0.01814833051871143</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008314694010350034</v>
+        <v>0.008229969731444393</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02005830316951877</v>
+        <v>0.02017078782484961</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01441588677794028</v>
+        <v>0.01377514743183047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02078485406037457</v>
+        <v>0.02107776468146321</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01129381849772632</v>
+        <v>0.01085024969835686</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01576298824558678</v>
+        <v>0.0161930428693074</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03823470293351541</v>
+        <v>0.04218770796026011</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04336727970259747</v>
+        <v>0.04287707599285708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03237926586989615</v>
+        <v>0.03334982802824454</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02849999525738165</v>
+        <v>0.0287267654313571</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0320327158496861</v>
+        <v>0.03121052053703493</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04834119214612686</v>
+        <v>0.04656306300465179</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03029561345208872</v>
+        <v>0.02941941845069374</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04237299885316259</v>
+        <v>0.04283052604522445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02970841720457819</v>
+        <v>0.03014906948112523</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03884633775035217</v>
+        <v>0.03901204599942669</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02753044795610035</v>
+        <v>0.02654359652642842</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03156811828062032</v>
+        <v>0.03116593361730354</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02192093190232898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06197818511009636</v>
+        <v>0.06197818511009635</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04054071664603232</v>
@@ -1105,7 +1105,7 @@
         <v>0.02006424803383891</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05465095082232455</v>
+        <v>0.05465095082232454</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01375778412563076</v>
+        <v>0.01435297527837023</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03460871872152313</v>
+        <v>0.03332541520001629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01152734768869801</v>
+        <v>0.01104207198061573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04471047915713429</v>
+        <v>0.04631301451832619</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02643622129231368</v>
+        <v>0.02527261428831035</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04235513573993206</v>
+        <v>0.04124797321791353</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009383835900182316</v>
+        <v>0.009344753145475226</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03616194727634951</v>
+        <v>0.03623547749189942</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02217389286366319</v>
+        <v>0.02294434255703216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04379698762628429</v>
+        <v>0.04368935420518724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01279992084435129</v>
+        <v>0.01328716816456446</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04362777551736596</v>
+        <v>0.04371623940412184</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04488233454327081</v>
+        <v>0.04944500576208365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07379655982396713</v>
+        <v>0.07592963516675427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03769809327456913</v>
+        <v>0.03896732354673937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08143401441970143</v>
+        <v>0.08369282001900984</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06102102040117182</v>
+        <v>0.05749609534547873</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0842585170760845</v>
+        <v>0.08671472338804383</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03049907573632518</v>
+        <v>0.03399978110410885</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06079948506210485</v>
+        <v>0.06131585561963757</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04550203123357754</v>
+        <v>0.0457270634545188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07146601644831174</v>
+        <v>0.07295256535214122</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02853838819942281</v>
+        <v>0.03066555453718647</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06673847132163364</v>
+        <v>0.06648720405801235</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.06621720738637718</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09009775263212741</v>
+        <v>0.09009775263212742</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0237143048266804</v>
+        <v>0.02361095387466771</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01950738240806646</v>
+        <v>0.01978272303915865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03338213484948711</v>
+        <v>0.03122869726088414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05949607855048336</v>
+        <v>0.06073607658529784</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03809568291854021</v>
+        <v>0.03786970334163715</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05151626844943185</v>
+        <v>0.05305191063496904</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05687003344150036</v>
+        <v>0.05656992103324183</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08393932929968007</v>
+        <v>0.084333640619568</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03504564285643951</v>
+        <v>0.03527694483824882</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04087044267140703</v>
+        <v>0.04108351216209026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0506748170269098</v>
+        <v>0.05006468284413876</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07724761300628402</v>
+        <v>0.076960792817867</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06040579428413193</v>
+        <v>0.0599505383881859</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05742934199886321</v>
+        <v>0.05701816563277269</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07811641512331195</v>
+        <v>0.07757912218191899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09922918549078887</v>
+        <v>0.09952271049144146</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08311218566403925</v>
+        <v>0.0844497905457724</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1042689168995521</v>
+        <v>0.1018143193866011</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1057745223859348</v>
+        <v>0.1081283399634161</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1209165910687006</v>
+        <v>0.1228596033969509</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06475236794250712</v>
+        <v>0.06585382797731906</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07345590503008882</v>
+        <v>0.07212132103437366</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08298140862024525</v>
+        <v>0.08490676634306667</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1055564555805421</v>
+        <v>0.1052953944578235</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02409935582160655</v>
+        <v>0.0239075617898705</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04394241314210864</v>
+        <v>0.04513699219199614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03009921987931968</v>
+        <v>0.02950558306158871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0935983022086103</v>
+        <v>0.09231911093895186</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04932869098796972</v>
+        <v>0.05016697241610425</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08067312210975351</v>
+        <v>0.08041377628765017</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04234206838224595</v>
+        <v>0.04071721279493051</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1280968415781953</v>
+        <v>0.1285703546378617</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04115138337578782</v>
+        <v>0.04363965960195006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07222386249581908</v>
+        <v>0.07047554843833861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0411760533150449</v>
+        <v>0.04154856586958709</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1179986944372172</v>
+        <v>0.116577477076145</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07577422910769692</v>
+        <v>0.07350876185012103</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.114107075573037</v>
+        <v>0.1176181268157705</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07829405480330784</v>
+        <v>0.07616952190782475</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1445682902886474</v>
+        <v>0.1428542093251345</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1025988227586511</v>
+        <v>0.1045530727661595</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.149371087925043</v>
+        <v>0.1436786795064163</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09303349638407619</v>
+        <v>0.09214145838929833</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1774761880878122</v>
+        <v>0.1768217411566273</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0785646283848402</v>
+        <v>0.07975652147584826</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1195076638683836</v>
+        <v>0.1185106165648017</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0767413490780756</v>
+        <v>0.07815825928084835</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1512771678369678</v>
+        <v>0.1525601299824728</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04540584492344835</v>
+        <v>0.04690578151557263</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08585002678892117</v>
+        <v>0.08563847939105311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04286431397825449</v>
+        <v>0.04620324655612098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1601902468614113</v>
+        <v>0.1599278567492062</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04244790935580407</v>
+        <v>0.04278729776038096</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07649075872894411</v>
+        <v>0.07749417597258296</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08019270637552266</v>
+        <v>0.07868186822335232</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2363959470146878</v>
+        <v>0.2379402242968357</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05098149694904108</v>
+        <v>0.05214630956902901</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09078870416393722</v>
+        <v>0.09159716675637582</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07167742544146768</v>
+        <v>0.06926557415982827</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2138260697921589</v>
+        <v>0.2122389106419838</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1156831695385165</v>
+        <v>0.1138935185089572</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1785328401737351</v>
+        <v>0.1745182541494464</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1015784057824504</v>
+        <v>0.1051626593619895</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2333976200498123</v>
+        <v>0.2317843759187319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1030887915774033</v>
+        <v>0.1015189364642327</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1384773853485077</v>
+        <v>0.1419493484845837</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1511008349464125</v>
+        <v>0.1506912142719576</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2923176288475541</v>
+        <v>0.2938226788369988</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09786497145091287</v>
+        <v>0.09607533408360897</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1442904045424818</v>
+        <v>0.1446484009911652</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1210939037401352</v>
+        <v>0.1193898195927076</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2591539574224656</v>
+        <v>0.2587889135396367</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.04055174480053273</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03126609310876499</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="28">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2609</v>
+        <v>2746</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2023,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3855</v>
+        <v>4533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5672</v>
+        <v>5200</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4705</v>
+        <v>5075</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2852</v>
+        <v>2842</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1658</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9722</v>
+        <v>8488</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13964</v>
+        <v>15195</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11109</v>
+        <v>11505</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18134</v>
+        <v>14530</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15315</v>
+        <v>16212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9679</v>
+        <v>8862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12398</v>
+        <v>11345</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11481</v>
+        <v>9328</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19454</v>
+        <v>19348</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19393</v>
+        <v>19902</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16353</v>
+        <v>16432</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19178</v>
+        <v>20351</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6526</v>
+        <v>6540</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8601</v>
+        <v>8491</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4400</v>
+        <v>4921</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2638</v>
+        <v>2485</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2945</v>
+        <v>3168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7085</v>
+        <v>6683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4604</v>
+        <v>4457</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3123</v>
+        <v>3206</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11865</v>
+        <v>11870</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18298</v>
+        <v>16911</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11050</v>
+        <v>12019</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8203</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20570</v>
+        <v>21593</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26590</v>
+        <v>25692</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18279</v>
+        <v>18694</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16418</v>
+        <v>15971</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14365</v>
+        <v>14201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21874</v>
+        <v>22623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16450</v>
+        <v>17225</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15951</v>
+        <v>15397</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28606</v>
+        <v>29615</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41363</v>
+        <v>39852</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28521</v>
+        <v>31456</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26091</v>
+        <v>26033</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8608</v>
+        <v>8799</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10459</v>
+        <v>10405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6056</v>
+        <v>6484</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5022</v>
+        <v>4579</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6929</v>
+        <v>7062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14429</v>
+        <v>12812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5499</v>
+        <v>5443</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12479</v>
+        <v>12549</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19136</v>
+        <v>18285</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28808</v>
+        <v>29214</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15026</v>
+        <v>14436</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19593</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24380</v>
+        <v>26901</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29492</v>
+        <v>29159</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21665</v>
+        <v>22314</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17694</v>
+        <v>17835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22094</v>
+        <v>21527</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34126</v>
+        <v>32870</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20037</v>
+        <v>19458</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26362</v>
+        <v>26647</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39435</v>
+        <v>40020</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>53841</v>
+        <v>54070</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36629</v>
+        <v>35316</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39238</v>
+        <v>38739</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7142</v>
+        <v>7451</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21271</v>
+        <v>20482</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7447</v>
+        <v>7134</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31325</v>
+        <v>32448</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13632</v>
+        <v>13032</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26009</v>
+        <v>25329</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6091</v>
+        <v>6065</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26647</v>
+        <v>26701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22945</v>
+        <v>23743</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>53813</v>
+        <v>53681</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16577</v>
+        <v>17209</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>62715</v>
+        <v>62842</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23301</v>
+        <v>25669</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45357</v>
+        <v>46668</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24355</v>
+        <v>25175</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>57054</v>
+        <v>58637</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31465</v>
+        <v>29647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51741</v>
+        <v>53249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19796</v>
+        <v>22068</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>44802</v>
+        <v>45183</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47085</v>
+        <v>47318</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87810</v>
+        <v>89636</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36961</v>
+        <v>39716</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>95937</v>
+        <v>95576</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9171</v>
+        <v>9131</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8356</v>
+        <v>8474</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>15954</v>
+        <v>14925</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36195</v>
+        <v>36949</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15390</v>
+        <v>15299</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23069</v>
+        <v>23757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28256</v>
+        <v>28107</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>50989</v>
+        <v>51228</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27710</v>
+        <v>27893</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>35808</v>
+        <v>35995</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>49396</v>
+        <v>48801</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>93918</v>
+        <v>93569</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23360</v>
+        <v>23183</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24600</v>
+        <v>24423</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37333</v>
+        <v>37076</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>60367</v>
+        <v>60546</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33576</v>
+        <v>34117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46692</v>
+        <v>45592</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>52554</v>
+        <v>53723</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>73451</v>
+        <v>74631</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>51199</v>
+        <v>52070</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>64358</v>
+        <v>63189</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>80888</v>
+        <v>82764</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>128336</v>
+        <v>128019</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7051</v>
+        <v>6995</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13377</v>
+        <v>13741</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10063</v>
+        <v>9865</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>38102</v>
+        <v>37581</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16916</v>
+        <v>17204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>28558</v>
+        <v>28466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15995</v>
+        <v>15381</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>56256</v>
+        <v>56464</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>26152</v>
+        <v>27734</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>47554</v>
+        <v>46403</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>29321</v>
+        <v>29586</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>99856</v>
+        <v>98653</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22170</v>
+        <v>21507</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>34738</v>
+        <v>35807</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26176</v>
+        <v>25466</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>58851</v>
+        <v>58153</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35185</v>
+        <v>35855</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>52877</v>
+        <v>50862</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35145</v>
+        <v>34808</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>77942</v>
+        <v>77654</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>49929</v>
+        <v>50687</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>78687</v>
+        <v>78031</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>54647</v>
+        <v>55656</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>128018</v>
+        <v>129103</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9530</v>
+        <v>9845</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21380</v>
+        <v>21327</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11016</v>
+        <v>11874</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>49691</v>
+        <v>49609</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14174</v>
+        <v>14287</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>29583</v>
+        <v>29971</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>32091</v>
+        <v>31486</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>109548</v>
+        <v>110264</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>27723</v>
+        <v>28357</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>57722</v>
+        <v>58236</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>47104</v>
+        <v>45519</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>165418</v>
+        <v>164190</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24280</v>
+        <v>23904</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>44461</v>
+        <v>43461</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>26105</v>
+        <v>27027</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>72399</v>
+        <v>71899</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34422</v>
+        <v>33898</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>53557</v>
+        <v>54899</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>60466</v>
+        <v>60302</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>135463</v>
+        <v>136160</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>53218</v>
+        <v>52245</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>91738</v>
+        <v>91966</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>79579</v>
+        <v>78459</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>200484</v>
+        <v>200201</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
     </row>
     <row r="36">
